--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanum\eclipse-workspace\Opencart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F6C63-B3D8-4AAA-A328-8245C29712D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5246D9E-0646-4C13-883F-4DAE6E922B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97963D95-E7CA-4E66-B044-FD331F4EF6C0}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
